--- a/excel_with_subclasses/without_zeros/country_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/country_with_count_without_zeros.xlsx
@@ -7,8 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="country" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="federated_state" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="state" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="island_nation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sovereign_state" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="kingdom" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="emirate" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -385,7 +388,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -411,7 +414,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -428,11 +431,8 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2786</v>
+          <t>Q96196009_государство</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -451,9 +451,6 @@
           <t>Q3024240_историческое государство</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>230</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -471,9 +468,6 @@
           <t>Q3024240_историческое государство</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>72</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -488,51 +482,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Q3024240_историческое государство</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>66</v>
+          <t>Q1250464_владение,Q3024240_историческое государство</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q11876947</t>
+          <t>Q217177</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Династии Древнего Египта</t>
+          <t>Тайфа</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Q3024240_историческое государство</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>34</v>
+          <t>Q1798550_petty kingdom</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q123480</t>
+          <t>Q11876947</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>не имеющие выхода к морю государства</t>
+          <t>Династии Древнего Египта</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>33</v>
+          <t>Q3024240_историческое государство</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -548,411 +533,229 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Q6256_страна,Q3024240_историческое государство</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>33</v>
+          <t>Q1250464_владение,Q3024240_историческое государство</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q28864179</t>
+          <t>Q188800</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>предложенное государство</t>
+          <t>личная уния</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>16</v>
+          <t>Q1250464_владение</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q188800</t>
+          <t>Q1625987</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>личная уния</t>
+          <t>План Одендаала</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>14</v>
+          <t>Q190354_бантустан</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q51576574</t>
+          <t>Q18669740</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>средиземноморская страна</t>
+          <t>бантустан ЮАР</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>12</v>
+          <t>Q190354_бантустан</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q18669740</t>
+          <t>Q190967</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>бантустан ЮАР</t>
+          <t>Государства крестоносцев</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Q190354_бантустан</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>10</v>
+          <t>Q3024240_историческое государство</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q190967</t>
+          <t>Q43185013</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Государства крестоносцев</t>
+          <t>морская республика</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>Q3024240_историческое государство</t>
         </is>
-      </c>
-      <c r="D13" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q1625987</t>
+          <t>Q463742</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>План Одендаала</t>
+          <t>Духовные княжества Священной Римской империи</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Q190354_бантустан</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>10</v>
+          <t>Q24298790_княжество-епископство,Q26830017_государство в составе Священной Римской империи</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q1323642</t>
+          <t>Q1074150</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>трансконтинентальная страна</t>
+          <t>shogunate</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>9</v>
+          <t>Q11545907_Q11545907</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q43185013</t>
+          <t>Q846025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>морская республика</t>
+          <t>Махаджанапады</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>Q3024240_историческое государство</t>
         </is>
-      </c>
-      <c r="D16" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Q1501897</t>
+          <t>Q3181749</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Генеральные земли</t>
+          <t>Арабский халифат</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>4</v>
+          <t>Q131401_халифат</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q66724388</t>
+          <t>Q1763527</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>страна в составе Королевства Дании</t>
+          <t>страна в составе более крупного государственного образования</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>3</v>
+          <t>Q5164076_составная часть суверенного государства</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q1074150</t>
+          <t>Q1679711</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>shogunate</t>
+          <t>Modellstaat</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Q11545907_Q11545907</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>3</v>
+          <t>Q1371288_вассальное государство,Q3024240_историческое государство</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Q1211369</t>
+          <t>Q39847223</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Империя, над которой никогда не заходит солнце</t>
+          <t>историческое протогосударство</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Q1323642_трансконтинентальная страна,Q1790360_колониальная империя,Q19202067_глобальная империя</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>3</v>
+          <t>Q3024240_историческое государство</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Q1093720</t>
+          <t>Q741966</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>реальный союз</t>
+          <t>Швабский округ</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Q846025</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Махаджанапады</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Q3024240_историческое государство</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Q11396118</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>разделённая страна</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Q1679711</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Modellstaat</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Q3024240_историческое государство</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Q59104206</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>полисинодальная монархия</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Q3325907_Polysynodal regime</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Q39847223</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>историческое протогосударство</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Q3024240_историческое государство</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Q1151616</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>нации без государства</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Q6256_страна</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Q1102202</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Династическая уния</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Q188800_личная уния</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>1</v>
+          <t>Q1798550_petty kingdom</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -966,7 +769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -992,288 +795,1266 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Q26830017</t>
+          <t>Q208500</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>государство в составе Священной Римской империи</t>
+          <t>княжество</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>103</v>
+          <t>Q7275_государство</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Q465842</t>
+          <t>Q154547</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>штат Нигерии</t>
+          <t>герцогство</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>47</v>
+          <t>Q7275_государство</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Q496539</t>
+          <t>Q1250464</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>провинция Южного Судана</t>
+          <t>владение</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>38</v>
+          <t>Q7275_государство</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q26879769</t>
+          <t>Q188443</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>государство в составе Рейнского союза</t>
+          <t>виртуальное государство</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>36</v>
+          <t>Q23037160_протогосударство</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Q15149663</t>
+          <t>Q12759805</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>штат Мексики</t>
+          <t>султанат</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>32</v>
+          <t>Q1250464_владение</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Q23058</t>
+          <t>Q1371288</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>кантоны Швейцарии</t>
+          <t>вассальное государство</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>26</v>
+          <t>Q1151405_клиентское государство</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Q1221156</t>
+          <t>Q48349</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>земля в составе Германии</t>
+          <t>империя</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>20</v>
+          <t>Q1250464_владение</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Q746290</t>
+          <t>Q164142</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>провинция Судана</t>
+          <t>протекторат</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>18</v>
+          <t>Q1151405_клиентское государство</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Q15063586</t>
+          <t>Q24298790</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>штат Малайзии</t>
+          <t>княжество-епископство</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>13</v>
+          <t>Q3403564_церковное княжество</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Q236036</t>
+          <t>Q217177</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>союзная республика в составе СССР</t>
+          <t>Тайфа</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>13</v>
+          <t>Q1088391_государство-обрубок,Q1250464_владение,Q1798550_petty kingdom</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Q261543</t>
+          <t>Q26879769</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>федеральная земля Австрии</t>
+          <t>государство в составе Рейнского союза</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>9</v>
+          <t>Q26879763_клиентское государство времён Наполеоновских воин</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Q12959600</t>
+          <t>Q123480</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>республика в составе СФРЮ</t>
+          <t>не имеющие выхода к морю государства</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>7</v>
+          <t>Q7275_государство</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q463742</t>
+          <t>Q331644</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Духовные княжества Священной Римской империи</t>
+          <t>ханство</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Q26830017_государство в составе Священной Римской империи</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>6</v>
+          <t>Q1250464_владение</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q65183056</t>
+          <t>Q691981</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>штат Федеральной Республики Центральной Америки</t>
+          <t>Силезские княжества</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Q107390_государство в составе федеративного союза</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>5</v>
+          <t>Q154547_герцогство,Q208500_княжество</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Q3241965</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>tributary state</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Q1151405_клиентское государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Q472538</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>дочерние республики</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Q1151405_клиентское государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Q26879763</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>клиентское государство времён Наполеоновских воин</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Q1151405_клиентское государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Q208164</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>марионеточное государство</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Q1151405_клиентское государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Q1151405</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>клиентское государство</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Q22693483</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Pflegamt</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Q57979411</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>дукат</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Q154547_герцогство</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Q188800</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>личная уния</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Q7275_государство,Q1250464_владение</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Q2494447</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>удельное княжество</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Q208500_княжество</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Q236036</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>союзная республика в составе СССР</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Q1763527_страна в составе более крупного государственного образования,Q23037160_протогосударство</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Q426759</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>мандатная территория</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Q164142_протекторат</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Q165116</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>великое княжество/великое герцогство</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Q208500_княжество</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Q27925057</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>курфюшество</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Q208500_княжество</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Q467745</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>союзные территории Индии</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Q131541_штаты и территории Индии</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Q325261</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>государство-сателлит</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Q1151405_клиентское государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Q1625987</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>План Одендаала</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Q190354_бантустан</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Q18669740</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>бантустан ЮАР</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Q190354_бантустан</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Q190967</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Государства крестоносцев</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Q21479969</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>протекторат Великобритании</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Q164142_протекторат</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Q23037160</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>протогосударство</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Q12959600</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>республика в составе СФРЮ</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Q1763527_страна в составе более крупного государственного образования</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Q179164</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>унитарное государство</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Q463742</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Духовные княжества Священной Римской империи</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Q3403564_церковное княжество,Q24298790_княжество-епископство</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Q859563</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>светское государство</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Q3336843</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>страна в составе Соединённого Королевства Великобритании и Северной Ирландии</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Q1763527_страна в составе более крупного государственного образования</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Q672729</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>исламская республика</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Q4204060_исламское государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Q842112</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>социалистическое государство</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Q15304003</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>государственное образование в составе Королевства Нидерландов</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Q1763527_страна в составе более крупного государственного образования</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Q2560551</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>вассальные и даннические государства Османской империи</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Q1151405_клиентское государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Q3403564</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>церковное княжество</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Q208500_княжество</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Q4209223</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>правовое государство</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Q131401</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>халифат</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Q1250464_владение,Q4204060_исламское государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Q56219758</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>республика в составе Чехословакии</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Q1763527_страна в составе более крупного государственного образования,Q23037160_протогосударство</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Q836915</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>свободное государство</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Q1088391</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>государство-обрубок</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Q4808085</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>proposed state or territory of India</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Q131541_штаты и территории Индии</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Q5164076</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>составная часть суверенного государства</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Q66724388</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>страна в составе Королевства Дании</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Q1763527_страна в составе более крупного государственного образования</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Q10007123</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Griqua state</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Q1138279</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ассоциированное государство</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Q1151405_клиентское государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Q849866</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>коммунистическое государство</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Q617347</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Племенные герцогства</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Q154547_герцогство</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Q587252</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>буферное государство</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Q185963</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Нейтралитет</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Q1763527</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>страна в составе более крупного государственного образования</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Q7275_государство,Q5164076_составная часть суверенного государства</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Q3181749</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Арабский халифат</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Q131401_халифат</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Q1679711</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Modellstaat</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Q1371288_вассальное государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Q131541</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>штаты и территории Индии</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Q1763527_страна в составе более крупного государственного образования</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Q2706826</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Sheikhdom</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Q208500_княжество</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Q59104206</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>полисинодальная монархия</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Q3325907_Polysynodal regime</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Q13403037</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Русские княжества</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Q672502</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>эрнестинские герцогства</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Q154547_герцогство,Q208500_княжество</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Q4204060</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>исламское государство</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Q16034119</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Despotate</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Q160016</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>государство-член ООН</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Q1646605_страна-участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Q619610</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>социальное государство</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Q1939894</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Верховские княжества</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Q208500_княжество</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Q1102202</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Династическая уния</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Q188800_личная уния</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Q24305436</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>abbey-principality</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Q3403564_церковное княжество</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Q21286176</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Christian state</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Q7275_государство</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1313,7 +2094,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -1333,9 +2114,522 @@
           <t>Q112099_островное государство</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>5</v>
-      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>subclass</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>subclasslabel</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>signifance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Q48349</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>империя</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Q3624078_суверенное государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Q217177</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Тайфа</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Q3624078_суверенное государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Q202686</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>королевство Содружества</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Q3624078_суверенное государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Q1790360</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>колониальная империя</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Q48349_империя</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Q20181813</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>колониальная власть</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Q3624078_суверенное государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Q2067184</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Болгарское царство</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Q48349_империя</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Q83311</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Персия</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Q48349_империя</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Q63791824</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>страны, граничащие с Балтийским морем</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Q3624078_суверенное государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Q2495771</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>кочевое государство</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Q48349_империя</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Q1211369</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Империя, над которой никогда не заходит солнце</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Q1790360_колониальная империя,Q19202067_глобальная империя</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Q965692</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>taifa (first period)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Q217177_Тайфа</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Q3181749</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Арабский халифат</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Q48349_империя</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Q179671</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>национальное государство</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Q3624078_суверенное государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Q1761621</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Господство на море</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Q3624078_суверенное государство</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Q160016</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>государство-член ООН</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Q3624078_суверенное государство</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>subclass</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>subclasslabel</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>signifance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Q217177</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Тайфа</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Q1798550_petty kingdom</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Q1798550</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>petty kingdom</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Q417175_царство/королевство</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Q202686</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>королевство Содружества</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Q417175_царство/королевство</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Q965692</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>taifa (first period)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Q217177_Тайфа</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Q8202984</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Арамейское царство</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Q417175_царство/королевство</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Q741966</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Швабский округ</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Q1798550_petty kingdom</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>subclass</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>subclasslabel</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>signifance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Q217177</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Тайфа</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Q189898_эмират</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Q965692</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>taifa (first period)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Q217177_Тайфа</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
